--- a/pos_febr/results/paper_table1.xlsx
+++ b/pos_febr/results/paper_table1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Bootstrap p value</t>
+          <t>Permutation test p value</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Bootstrap p value corrected</t>
+          <t>Permutation test p value corrected</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -501,29 +501,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-0.54, 0.53]</t>
+          <t>[-3.05, 2.9]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.73</v>
+        <v>-5.71</v>
       </c>
       <c r="E2" t="n">
         <v>-0.76</v>
       </c>
       <c r="F2" t="n">
-        <v>0.007900000000000001</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0105</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>-2.75</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0107</v>
+        <v>0.008299000000000001</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -538,37 +540,41 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-0.54, 0.54]</t>
+          <t>[-2.97, 3.04]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.15</v>
+        <v>1.21</v>
       </c>
       <c r="E3" t="n">
         <v>0.15</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5867</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.5867</v>
+        <v>0.45</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>0.53</v>
+        <v>452</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6166</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6166</v>
+        <v>0.03533</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Two-Sample two-tailed t-Test</t>
+          <t>Mann–Whitney U test</t>
         </is>
       </c>
     </row>
@@ -583,29 +589,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-0.56, 0.54]</t>
+          <t>[-3.38, 3.44]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.82</v>
+        <v>-7.24</v>
       </c>
       <c r="E4" t="n">
         <v>-0.88</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0033</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0066</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>-3.15</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0035</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.007</v>
+        <v>0.0024</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -624,29 +632,31 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[-0.53, 0.52]</t>
+          <t>[-5.14, 5.1]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9</v>
+        <v>11.74</v>
       </c>
       <c r="E5" t="n">
         <v>0.97</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0014</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0056</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>3.52</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0008</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0032</v>
+        <v>0.0018</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -665,20 +675,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-0.25, 0.27]</t>
+          <t>[-0.59, 0.63]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-0.26</v>
+        <v>-0.86</v>
       </c>
       <c r="E6" t="n">
         <v>-0.26</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0485</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.097</v>
+        <v>0.004</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.008</t>
+        </is>
       </c>
       <c r="H6" t="n">
         <v>5766.5</v>
@@ -686,8 +698,10 @@
       <c r="I6" t="n">
         <v>0.0111</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.0222</v>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -706,29 +720,33 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-0.29, 0.29]</t>
+          <t>[-0.54, 0.55]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.38</v>
+        <v>1.01</v>
       </c>
       <c r="E7" t="n">
         <v>0.38</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0104</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.0416</v>
+        <v>0.0002</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
       </c>
       <c r="H7" t="n">
         <v>2.61</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0059</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.0222</v>
+        <v>0.006799</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -743,37 +761,41 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-0.18, 0.18]</t>
+          <t>[-0.28, 0.3]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.04</v>
+        <v>-0.09</v>
       </c>
       <c r="E8" t="n">
         <v>-0.04</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6808</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.6808</v>
+        <v>0.5629</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.563</t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>-0.42</v>
+        <v>25821.5</v>
       </c>
       <c r="I8" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.9</v>
+        <v>0.3436</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0.424</t>
+        </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Two-Sample two-tailed t-Test</t>
+          <t>Mann–Whitney U test</t>
         </is>
       </c>
     </row>
@@ -784,37 +806,41 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[-0.1, 0.1]</t>
+          <t>[-0.23, 0.22]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="E9" t="n">
         <v>0.04</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4203</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.5604</v>
+        <v>0.2644</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.352</t>
+        </is>
       </c>
       <c r="H9" t="n">
-        <v>273376.5</v>
+        <v>0.8</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9552</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.9552</v>
+        <v>0.4236</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0.424</t>
+        </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Mann–Whitney U test</t>
+          <t>Two-Sample two-tailed t-Test</t>
         </is>
       </c>
     </row>
@@ -829,29 +855,33 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[-0.25, 0.26]</t>
+          <t>[-14.2, 14.51]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.06</v>
+        <v>4.48</v>
       </c>
       <c r="E10" t="n">
         <v>0.06</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6496</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.6496</v>
+        <v>0.541</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.541</t>
+        </is>
       </c>
       <c r="H10" t="n">
         <v>0.45</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6574</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6574</v>
+        <v>0.672</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0.671</t>
+        </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -870,29 +900,33 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[-0.29, 0.29]</t>
+          <t>[-12.15, 12.17]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.29</v>
+        <v>17.18</v>
       </c>
       <c r="E11" t="n">
         <v>0.29</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0465</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.093</v>
+        <v>0.0066</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
       </c>
       <c r="H11" t="n">
         <v>1.99</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0489</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.0978</v>
+        <v>0.0448</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -911,29 +945,33 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[-0.18, 0.19]</t>
+          <t>[-10.57, 10.47]</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.15</v>
+        <v>11.98</v>
       </c>
       <c r="E12" t="n">
         <v>0.15</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1071</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.1428</v>
+        <v>0.0263</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
       </c>
       <c r="H12" t="n">
         <v>1.59</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1085</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.1447</v>
+        <v>0.111</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0.148</t>
+        </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -952,29 +990,33 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[-0.1, 0.1]</t>
+          <t>[-5.21, 5.22]</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.14</v>
+        <v>9.82</v>
       </c>
       <c r="E13" t="n">
         <v>0.14</v>
       </c>
       <c r="F13" t="n">
-        <v>0.008500000000000001</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.034</v>
+        <v>0.0004</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
       </c>
       <c r="H13" t="n">
         <v>2.65</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0094</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.0376</v>
+        <v>0.0071</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -993,29 +1035,33 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[-0.58, 0.57]</t>
+          <t>[-0.06, 0.06]</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-0.5</v>
+        <v>-0.08</v>
       </c>
       <c r="E14" t="n">
         <v>-0.5</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0912</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.0912</v>
+        <v>0.0143</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
       </c>
       <c r="H14" t="n">
         <v>-1.75</v>
       </c>
       <c r="I14" t="n">
-        <v>0.08790000000000001</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.08790000000000001</v>
+        <v>0.08550000000000001</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1026,7 +1072,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Reaction time</t>
+          <t>Mean reaction time (one-sided alternative)</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -1034,31 +1080,76 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[-0.09, 0.09]</t>
+          <t>[-0.06, 0.06]</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-0.27</v>
+        <v>-0.08</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.27</v>
+        <v>-0.5</v>
       </c>
       <c r="F15" t="n">
+        <v>0.0143</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0.039</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Two-Sample one-tailed t-Test</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Reaction time</t>
+        </is>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[-0.01, 0.01]</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="F16" t="n">
         <v>0</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G16" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="n">
-        <v>-5.76</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="H16" t="n">
+        <v>-8.109999999999999</v>
+      </c>
+      <c r="I16" t="n">
         <v>0.0001</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J16" t="n">
         <v>0.0001</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>Two-Sample two-tailed t-Test</t>
         </is>
